--- a/PacketComparing/resources/output.xlsx
+++ b/PacketComparing/resources/output.xlsx
@@ -5,59 +5,59 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="13"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="31"/>
   </bookViews>
   <sheets>
-    <sheet name="outputShhet 1" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="outputShhet 2" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="outputShhet 3" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="outputShhet 4" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="outputShhet 5" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="outputShhet 6" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="outputShhet 7" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="outputShhet 8" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="outputShhet 9" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="outputShhet 10" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="outputShhet 11" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="outputShhet 12" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="outputShhet 13" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="outputShhet 14" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="outputShhet 15" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="outputShhet 16" sheetId="16" state="visible" r:id="rId17"/>
-    <sheet name="outputShhet 17" sheetId="17" state="visible" r:id="rId18"/>
-    <sheet name="outputShhet 18" sheetId="18" state="visible" r:id="rId19"/>
-    <sheet name="outputShhet 19" sheetId="19" state="visible" r:id="rId20"/>
-    <sheet name="outputShhet 20" sheetId="20" state="visible" r:id="rId21"/>
-    <sheet name="outputShhet 21" sheetId="21" state="visible" r:id="rId22"/>
-    <sheet name="outputShhet 22" sheetId="22" state="visible" r:id="rId23"/>
-    <sheet name="outputShhet 23" sheetId="23" state="visible" r:id="rId24"/>
-    <sheet name="outputShhet 24" sheetId="24" state="visible" r:id="rId25"/>
-    <sheet name="outputShhet 25" sheetId="25" state="visible" r:id="rId26"/>
-    <sheet name="outputShhet 26" sheetId="26" state="visible" r:id="rId27"/>
-    <sheet name="outputShhet 27" sheetId="27" state="visible" r:id="rId28"/>
-    <sheet name="outputShhet 28" sheetId="28" state="visible" r:id="rId29"/>
-    <sheet name="outputShhet 29" sheetId="29" state="visible" r:id="rId30"/>
-    <sheet name="outputShhet 30" sheetId="30" state="visible" r:id="rId31"/>
-    <sheet name="outputShhet 31" sheetId="31" state="visible" r:id="rId32"/>
-    <sheet name="outputShhet 32" sheetId="32" state="visible" r:id="rId33"/>
-    <sheet name="outputShhet 33" sheetId="33" state="visible" r:id="rId34"/>
-    <sheet name="outputShhet 34" sheetId="34" state="visible" r:id="rId35"/>
-    <sheet name="outputShhet 35" sheetId="35" state="visible" r:id="rId36"/>
-    <sheet name="outputShhet 36" sheetId="36" state="visible" r:id="rId37"/>
-    <sheet name="outputShhet 37" sheetId="37" state="visible" r:id="rId38"/>
-    <sheet name="outputShhet 38" sheetId="38" state="visible" r:id="rId39"/>
-    <sheet name="outputShhet 39" sheetId="39" state="visible" r:id="rId40"/>
-    <sheet name="outputShhet 40" sheetId="40" state="visible" r:id="rId41"/>
-    <sheet name="outputShhet 41" sheetId="41" state="visible" r:id="rId42"/>
-    <sheet name="outputShhet 42" sheetId="42" state="visible" r:id="rId43"/>
-    <sheet name="outputShhet 43" sheetId="43" state="visible" r:id="rId44"/>
-    <sheet name="outputShhet 44" sheetId="44" state="visible" r:id="rId45"/>
-    <sheet name="outputShhet 45" sheetId="45" state="visible" r:id="rId46"/>
-    <sheet name="outputShhet 46" sheetId="46" state="visible" r:id="rId47"/>
-    <sheet name="outputShhet 47" sheetId="47" state="visible" r:id="rId48"/>
-    <sheet name="outputShhet 48" sheetId="48" state="visible" r:id="rId49"/>
-    <sheet name="outputShhet 49" sheetId="49" state="visible" r:id="rId50"/>
-    <sheet name="outputShhet 50" sheetId="50" state="visible" r:id="rId51"/>
+    <sheet name="outputSheet 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="outputSheet 2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="outputSheet 3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="outputSheet 4" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="outputSheet 5" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="outputSheet 6" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="outputSheet 7" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="outputSheet 8" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="outputSheet 9" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="outputSheet 10" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="outputSheet 11" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="outputSheet 12" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="outputSheet 13" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="outputSheet 14" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="outputSheet 15" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="outputSheet 16" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="outputSheet 17" sheetId="17" state="visible" r:id="rId18"/>
+    <sheet name="outputSheet 18" sheetId="18" state="visible" r:id="rId19"/>
+    <sheet name="outputSheet 19" sheetId="19" state="visible" r:id="rId20"/>
+    <sheet name="outputSheet 20" sheetId="20" state="visible" r:id="rId21"/>
+    <sheet name="outputSheet 21" sheetId="21" state="visible" r:id="rId22"/>
+    <sheet name="outputSheet 22" sheetId="22" state="visible" r:id="rId23"/>
+    <sheet name="outputSheet 23" sheetId="23" state="visible" r:id="rId24"/>
+    <sheet name="outputSheet 24" sheetId="24" state="visible" r:id="rId25"/>
+    <sheet name="outputSheet 25" sheetId="25" state="visible" r:id="rId26"/>
+    <sheet name="outputSheet 26" sheetId="26" state="visible" r:id="rId27"/>
+    <sheet name="outputSheet 27" sheetId="27" state="visible" r:id="rId28"/>
+    <sheet name="outputSheet 28" sheetId="28" state="visible" r:id="rId29"/>
+    <sheet name="outputSheet 29" sheetId="29" state="visible" r:id="rId30"/>
+    <sheet name="outputSheet 30" sheetId="30" state="visible" r:id="rId31"/>
+    <sheet name="outputSheet 31" sheetId="31" state="visible" r:id="rId32"/>
+    <sheet name="outputSheet 32" sheetId="32" state="visible" r:id="rId33"/>
+    <sheet name="outputSheet 33" sheetId="33" state="visible" r:id="rId34"/>
+    <sheet name="outputSheet 34" sheetId="34" state="visible" r:id="rId35"/>
+    <sheet name="outputSheet 35" sheetId="35" state="visible" r:id="rId36"/>
+    <sheet name="outputSheet 36" sheetId="36" state="visible" r:id="rId37"/>
+    <sheet name="outputSheet 37" sheetId="37" state="visible" r:id="rId38"/>
+    <sheet name="outputSheet 38" sheetId="38" state="visible" r:id="rId39"/>
+    <sheet name="outputSheet 39" sheetId="39" state="visible" r:id="rId40"/>
+    <sheet name="outputSheet 40" sheetId="40" state="visible" r:id="rId41"/>
+    <sheet name="outputSheet 41" sheetId="41" state="visible" r:id="rId42"/>
+    <sheet name="outputSheet 42" sheetId="42" state="visible" r:id="rId43"/>
+    <sheet name="outputSheet 43" sheetId="43" state="visible" r:id="rId44"/>
+    <sheet name="outputSheet 44" sheetId="44" state="visible" r:id="rId45"/>
+    <sheet name="outputSheet 45" sheetId="45" state="visible" r:id="rId46"/>
+    <sheet name="outputSheet 46" sheetId="46" state="visible" r:id="rId47"/>
+    <sheet name="outputSheet 47" sheetId="47" state="visible" r:id="rId48"/>
+    <sheet name="outputSheet 48" sheetId="48" state="visible" r:id="rId49"/>
+    <sheet name="outputSheet 49" sheetId="49" state="visible" r:id="rId50"/>
+    <sheet name="outputSheet 50" sheetId="50" state="visible" r:id="rId51"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -71,7 +71,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="1956">
   <si>
-    <t xml:space="preserve">Protocole1</t>
+    <t xml:space="preserve">Protocol</t>
   </si>
   <si>
     <t xml:space="preserve">String's length</t>
@@ -5946,7 +5946,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5976,6 +5976,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -6020,12 +6027,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6049,7 +6060,7 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="G31" activeCellId="0" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8635,8 +8646,8 @@
   </sheetPr>
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8644,7 +8655,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
@@ -9142,37 +9153,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9314,29 +9330,29 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9478,29 +9494,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9643,37 +9659,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9815,29 +9836,29 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -9979,29 +10000,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10162,37 +10183,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10334,29 +10360,29 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10498,29 +10524,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10663,37 +10689,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I19" activeCellId="0" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10835,29 +10866,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -10999,29 +11030,29 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11164,37 +11195,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J23" activeCellId="0" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11336,29 +11372,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -11500,29 +11536,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12176,37 +12212,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12348,29 +12389,29 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12512,29 +12553,29 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12695,37 +12736,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H29" activeCellId="0" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -12867,29 +12913,29 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13031,29 +13077,29 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13196,37 +13242,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J24" activeCellId="0" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13368,29 +13419,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13532,29 +13583,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13715,37 +13766,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13887,29 +13943,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14051,29 +14107,29 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14234,37 +14290,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14406,29 +14467,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14570,29 +14631,29 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14753,37 +14814,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -14925,29 +14991,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15089,29 +15155,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15272,37 +15338,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15444,29 +15515,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15608,29 +15679,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15773,37 +15844,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J13" activeCellId="0" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -15945,29 +16021,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16109,29 +16185,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16292,37 +16368,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16464,29 +16545,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16628,29 +16709,29 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16811,37 +16892,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -16983,29 +17069,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17147,29 +17233,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -17856,37 +17942,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J22" activeCellId="0" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18028,29 +18119,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18192,29 +18283,29 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18357,37 +18448,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J25" activeCellId="0" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18529,29 +18625,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18693,29 +18789,29 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -18857,38 +18953,43 @@
   </sheetPr>
   <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I16" activeCellId="0" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19030,29 +19131,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19194,29 +19295,29 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19377,37 +19478,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19549,29 +19655,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19713,29 +19819,29 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -19896,37 +20002,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20068,29 +20179,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20232,29 +20343,29 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20397,37 +20508,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I24" activeCellId="0" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20569,29 +20685,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20733,29 +20849,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -20916,37 +21032,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J21" activeCellId="0" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21088,29 +21209,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21252,29 +21373,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21417,37 +21538,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21589,29 +21715,29 @@
         <v>245</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21753,29 +21879,29 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -21918,37 +22044,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22090,29 +22221,29 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22254,29 +22385,29 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22437,37 +22568,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22609,29 +22745,29 @@
         <v>297</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -22773,29 +22909,29 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23462,37 +23598,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23634,29 +23775,29 @@
         <v>178</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23798,29 +23939,29 @@
         <v>738</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -23981,37 +24122,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J14" activeCellId="0" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24153,29 +24299,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24317,29 +24463,29 @@
         <v>900</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24500,37 +24646,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H26" activeCellId="0" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="18.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24672,29 +24823,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24836,29 +24987,29 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25001,37 +25152,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="H24" activeCellId="0" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25173,29 +25329,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25337,29 +25493,29 @@
         <v>316</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25520,37 +25676,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25692,29 +25853,29 @@
         <v>83</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -25856,29 +26017,29 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26021,37 +26182,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="K15" activeCellId="0" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26193,29 +26359,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26357,29 +26523,29 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26540,37 +26706,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="17.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26712,29 +26883,29 @@
         <v>172</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -26876,29 +27047,29 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27041,37 +27212,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27213,29 +27389,29 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27377,29 +27553,29 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27560,37 +27736,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27732,29 +27913,29 @@
         <v>487</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -27896,29 +28077,29 @@
         <v>576</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -28061,37 +28242,42 @@
   <dimension ref="A2:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="J19" activeCellId="0" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -28233,29 +28419,29 @@
         <v>403</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="H9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -28397,29 +28583,29 @@
         <v>905</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="0" t="s">
+      <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="0" t="s">
+      <c r="H16" s="1" t="s">
         <v>7</v>
       </c>
     </row>
